--- a/dataset/tables/result.xlsx
+++ b/dataset/tables/result.xlsx
@@ -1,326 +1,239 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gaoyi/Documents/pocllm/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4BF6D7C-5051-CB45-9E7F-29FB4371E264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-21600" yWindow="0" windowWidth="21600" windowHeight="38400" activeTab="2" xr2:uid="{C78B102F-543F-C148-B569-C40006A0E87F}"/>
+    <workbookView windowWidth="29100" windowHeight="16060" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="123">
   <si>
     <t>motivation example</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>proj list</t>
   </si>
   <si>
     <t>openolat</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>方法调用链不可以触发漏洞</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cve</t>
+  </si>
+  <si>
+    <t>proj1</t>
+  </si>
+  <si>
+    <t>proj2</t>
+  </si>
+  <si>
+    <t>CVE-2017-7957</t>
+  </si>
+  <si>
+    <t>lion</t>
+  </si>
+  <si>
+    <t>PLMCodeTemplate</t>
   </si>
   <si>
     <t>xstream 数据集筛选</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>cqrs</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PLMCodeTemplate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不选</t>
+  </si>
+  <si>
+    <t>方法调用链顶端是个复杂函数</t>
+  </si>
+  <si>
+    <t>候选</t>
+  </si>
+  <si>
+    <t>方法调用链只有一个函数---</t>
   </si>
   <si>
     <t>gate-core</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不选</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>方法调用链顶端是个复杂函数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>候选</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>方法调用链只有一个函数---</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>MtgDesktopCompanion</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>方法调用链数目过于庞大</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>pentaho-metadata</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>sihai-maven-ssm-alipay</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>无法触发</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>httl-master</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">不选 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>方法调用链有点复杂，而且触发条件比较苛刻</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>iciql</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>lion-master</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">选 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PLMCodeTemplate</t>
   </si>
   <si>
     <t>CVE-2021-39144</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CVE-2017-7957</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cve</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>chain number(proj1/proj2)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>test number(proj1/proj2)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>trigger test number(proj1/proj2)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>acc(proj1/proj2)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>proj list</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>proj1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>proj2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>lion</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>/1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>/5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>base64</t>
+  </si>
+  <si>
+    <t>是否选</t>
+  </si>
+  <si>
+    <t>备注</t>
   </si>
   <si>
     <t>java-algorand-sdk-develop</t>
   </si>
   <si>
     <t>没有漏洞代码，应该是被修复了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>base64</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>dataease-dev</t>
   </si>
   <si>
-    <t>备注</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否选</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>TPL</t>
   </si>
   <si>
-    <t>TPL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>VUL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>chain num</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>tests</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>compile tests</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>verify pass tests</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>proj1 link</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>proj2 link</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Xstream</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>lion</t>
   </si>
   <si>
     <t>CVE-2021-21341</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>CVE-2022-41966</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>CVE-2020-26217</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Base64</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>CODEC-263</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>DBlog-master</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dataease-dev/sdk/dataease-plugin-common</t>
   </si>
   <si>
     <t>CODEC-270</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dataease-dev/sdk/dataease-plugin-common</t>
+  </si>
+  <si>
+    <t>String</t>
   </si>
   <si>
     <t>TEXT-215</t>
   </si>
   <si>
-    <t>String</t>
+    <t>see</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>CVE-2022-42889</t>
   </si>
   <si>
     <t>datafastlane</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CVE-2022-42889</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>qsf-integration-qsf-integration-3.5</t>
   </si>
   <si>
     <t>Number</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LANG-1484</t>
   </si>
   <si>
     <t>jjdz7-drony-refactor</t>
   </si>
   <si>
-    <t>X</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>waiter-service</t>
   </si>
   <si>
     <t>LANG-1385</t>
   </si>
   <si>
+    <t>ewallet</t>
+  </si>
+  <si>
     <t>wechat-ssm</t>
   </si>
   <si>
-    <t>LANG-1484</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ewallet</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>LANG-1645</t>
   </si>
   <si>
@@ -330,16 +243,15 @@
     <t>CVE-2023-1370</t>
   </si>
   <si>
+    <t>microservice-with-jwt-and-microprofile</t>
+  </si>
+  <si>
     <t>sqs-spring</t>
   </si>
   <si>
     <t>CVE-2021-27568</t>
   </si>
   <si>
-    <t>microservice-with-jwt-and-microprofile</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>CVE-2022-45688</t>
   </si>
   <si>
@@ -358,50 +270,42 @@
     <t>CVE-2021-35516</t>
   </si>
   <si>
-    <t>能触发，但是assert失败，是参数判断问题</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>CVE-2018-1324</t>
   </si>
   <si>
     <t>File</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CVE-2019-12415</t>
+  </si>
+  <si>
+    <t>poi-examples</t>
   </si>
   <si>
     <t>PoiSamples</t>
   </si>
   <si>
-    <t>poi-examples</t>
-  </si>
-  <si>
-    <t>CVE-2019-12415</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>CVE-2022-24615</t>
   </si>
   <si>
+    <t>lezz</t>
+  </si>
+  <si>
     <t>filetype-analyzer</t>
   </si>
   <si>
-    <t>lezz</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Zip-263</t>
   </si>
   <si>
+    <t>IO-611</t>
+  </si>
+  <si>
+    <t>velocity-engine</t>
+  </si>
+  <si>
     <t>FastJoin</t>
   </si>
   <si>
-    <t>IO-611</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>velocity-engine</t>
-  </si>
-  <si>
     <t>CVE-2021-29425</t>
   </si>
   <si>
@@ -414,114 +318,90 @@
     <t>PDFConvert14</t>
   </si>
   <si>
+    <t>NET</t>
+  </si>
+  <si>
+    <t>CVE-2020-13956</t>
+  </si>
+  <si>
+    <t>crawler-jsoup-maven</t>
+  </si>
+  <si>
+    <t>Html</t>
+  </si>
+  <si>
+    <t>CVE-2021-37714</t>
+  </si>
+  <si>
+    <t>phoenix_interface</t>
+  </si>
+  <si>
+    <t>pickaxe</t>
+  </si>
+  <si>
+    <t>Log</t>
+  </si>
+  <si>
+    <t>CVE-2021-44228</t>
+  </si>
+  <si>
+    <t>wework-msgaudit-2.2</t>
+  </si>
+  <si>
+    <t>openl-tablets-master</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
     <t>acc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Apache Codec</t>
   </si>
   <si>
+    <t>Apache Lang</t>
+  </si>
+  <si>
     <t>Apache Text</t>
   </si>
   <si>
-    <t>see</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Apache Lang</t>
+    <t>Apache.poi</t>
+  </si>
+  <si>
+    <t>Zip4j</t>
+  </si>
+  <si>
+    <t>Apache IO</t>
+  </si>
+  <si>
+    <t>Apache PDFBox</t>
   </si>
   <si>
     <t>Json-smart</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>JSON</t>
   </si>
   <si>
-    <t>Apache.poi</t>
-  </si>
-  <si>
-    <t>Zip4j</t>
-  </si>
-  <si>
-    <t>Apache IO</t>
-  </si>
-  <si>
-    <t>Apache PDFBox</t>
-  </si>
-  <si>
     <t>Apache Compress</t>
-  </si>
-  <si>
-    <t>NET</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CVE-2020-13956</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>crawler-jsoup-maven</t>
-  </si>
-  <si>
-    <t>Html</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CVE-2021-37714</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>phoenix_interface</t>
-  </si>
-  <si>
-    <t>pickaxe</t>
-  </si>
-  <si>
-    <t>Log</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CVE-2021-44228</t>
-  </si>
-  <si>
-    <t>openl-tablets-master</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>wework-msgaudit-2.2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="28">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -530,7 +410,45 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF9C5700"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -539,12 +457,128 @@
       <sz val="11.3"/>
       <color rgb="FF008000"/>
       <name val="JetBrains Mono"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -552,89 +586,226 @@
       <sz val="12"/>
       <color rgb="FF9C5700"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="0"/>
       <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <family val="4"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF9C5700"/>
-      <name val="等线"/>
-      <family val="4"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <family val="4"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -642,24 +813,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -667,47 +1065,86 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="4" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="3" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="2" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="5" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="29" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="24" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="22" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="23" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="41" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="22">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="差" xfId="2" builtinId="27"/>
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="1" builtinId="26"/>
-    <cellStyle name="适中" xfId="3" builtinId="28"/>
-    <cellStyle name="着色 2" xfId="4" builtinId="33"/>
-    <cellStyle name="着色 5" xfId="5" builtinId="45"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -756,7 +1193,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -789,26 +1226,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -841,23 +1261,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -999,355 +1402,352 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{755DD85C-A96A-894D-8496-97A45F7EAA5D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="C90" sqref="C90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" customWidth="1"/>
-    <col min="2" max="2" width="34.6640625" customWidth="1"/>
+    <col min="1" max="1" width="23.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="34.6666666666667" customWidth="1"/>
     <col min="3" max="3" width="47.5" customWidth="1"/>
     <col min="4" max="4" width="50.5" customWidth="1"/>
-    <col min="5" max="5" width="33.6640625" customWidth="1"/>
+    <col min="5" max="5" width="33.6666666666667" customWidth="1"/>
     <col min="10" max="10" width="27.5" customWidth="1"/>
-    <col min="12" max="12" width="35.1640625" customWidth="1"/>
+    <col min="12" max="12" width="35.1666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="J1" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="K2" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="L2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="J3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="10:12">
+      <c r="J3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
         <v>24</v>
-      </c>
-      <c r="K3" t="s">
-        <v>33</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="2" t="s">
-        <v>20</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="B37" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C37" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D37" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E37" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="2" t="s">
-        <v>24</v>
+      <c r="A38" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="B38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" t="s">
+        <v>33</v>
+      </c>
+      <c r="D38" t="s">
         <v>34</v>
       </c>
-      <c r="C38" t="s">
-        <v>34</v>
-      </c>
-      <c r="D38" t="s">
-        <v>35</v>
-      </c>
       <c r="E38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17BDF9AD-8669-2945-99E0-A8F210E9AD25}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A2:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelRow="3" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="34.33203125" customWidth="1"/>
-    <col min="3" max="3" width="63.1640625" customWidth="1"/>
+    <col min="1" max="1" width="34.3333333333333" customWidth="1"/>
+    <col min="3" max="3" width="63.1666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{453256FC-B45A-0743-A81E-4796B0AEF706}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:N141"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="G62" sqref="G62"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="1"/>
-    <col min="6" max="6" width="13.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="28.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.3333333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.8333333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.8333333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1666666666667" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.8333333333333" style="1"/>
+    <col min="6" max="6" width="13.6666666666667" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.6666666666667" style="1" customWidth="1"/>
+    <col min="8" max="8" width="28.8333333333333" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" style="1"/>
+    <col min="10" max="10" width="10.8333333333333" style="1"/>
     <col min="11" max="11" width="15" style="1" customWidth="1"/>
-    <col min="12" max="12" width="16.83203125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="32.33203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="16.8333333333333" style="1" customWidth="1"/>
+    <col min="13" max="13" width="32.3333333333333" style="1" customWidth="1"/>
     <col min="14" max="14" width="58.5" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="10.83203125" style="1"/>
+    <col min="15" max="16384" width="10.8333333333333" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="M1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="5" t="s">
-        <v>51</v>
-      </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="4">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2">
         <v>4</v>
       </c>
       <c r="E2" s="1">
@@ -1360,9 +1760,9 @@
         <v>7</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="4">
+        <v>9</v>
+      </c>
+      <c r="I2" s="2">
         <v>2</v>
       </c>
       <c r="J2" s="1">
@@ -1375,14 +1775,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="2:12">
       <c r="B3" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="4">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2">
         <v>4</v>
       </c>
       <c r="E3" s="1">
@@ -1395,9 +1795,9 @@
         <v>7</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="4">
+        <v>9</v>
+      </c>
+      <c r="I3" s="2">
         <v>2</v>
       </c>
       <c r="J3" s="1">
@@ -1410,11 +1810,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="2:12">
       <c r="B4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="4"/>
+        <v>50</v>
+      </c>
+      <c r="D4" s="2"/>
       <c r="E4" s="1">
         <v>8</v>
       </c>
@@ -1424,7 +1824,7 @@
       <c r="G4" s="1">
         <v>7</v>
       </c>
-      <c r="I4" s="4"/>
+      <c r="I4" s="2"/>
       <c r="J4" s="1">
         <v>4</v>
       </c>
@@ -1435,11 +1835,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="2:12">
       <c r="B5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="4"/>
+        <v>51</v>
+      </c>
+      <c r="D5" s="2"/>
       <c r="E5" s="1">
         <v>8</v>
       </c>
@@ -1449,7 +1849,7 @@
       <c r="G5" s="1">
         <v>7</v>
       </c>
-      <c r="I5" s="4"/>
+      <c r="I5" s="2"/>
       <c r="J5" s="1">
         <v>4</v>
       </c>
@@ -1460,11 +1860,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="2:12">
       <c r="B6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="4"/>
+        <v>52</v>
+      </c>
+      <c r="D6" s="2"/>
       <c r="E6" s="1">
         <v>8</v>
       </c>
@@ -1474,7 +1874,7 @@
       <c r="G6" s="1">
         <v>7</v>
       </c>
-      <c r="I6" s="4"/>
+      <c r="I6" s="2"/>
       <c r="J6" s="1">
         <v>4</v>
       </c>
@@ -1485,179 +1885,179 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
-      <c r="D7" s="6"/>
-      <c r="E7" s="6">
+    <row r="7" spans="4:12">
+      <c r="D7" s="4"/>
+      <c r="E7" s="4">
         <v>40</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="4">
         <v>40</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="4">
         <v>35</v>
       </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6">
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4">
         <v>20</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="4">
         <v>20</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L7" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
-      <c r="D8" s="4"/>
-      <c r="I8" s="4"/>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="5" t="s">
+    <row r="8" spans="4:9">
+      <c r="D8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2</v>
+      </c>
+      <c r="G9" s="1">
+        <v>2</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="I9" s="2">
+        <v>2</v>
+      </c>
+      <c r="J9" s="1">
+        <v>4</v>
+      </c>
+      <c r="K9" s="1">
+        <v>4</v>
+      </c>
+      <c r="L9" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12">
+      <c r="B10" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I10" s="2">
+        <v>2</v>
+      </c>
+      <c r="J10" s="1">
+        <v>4</v>
+      </c>
+      <c r="K10" s="1">
+        <v>4</v>
+      </c>
+      <c r="L10" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="4:12">
+      <c r="D11" s="2">
+        <v>2</v>
+      </c>
+      <c r="E11" s="4">
+        <v>4</v>
+      </c>
+      <c r="F11" s="4">
+        <v>4</v>
+      </c>
+      <c r="G11" s="4">
+        <v>4</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="2">
+        <v>4</v>
+      </c>
+      <c r="J11" s="4">
+        <v>8</v>
+      </c>
+      <c r="K11" s="4">
+        <v>8</v>
+      </c>
+      <c r="L11" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="4:9">
+      <c r="D12" s="2"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="4">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1">
-        <v>2</v>
-      </c>
-      <c r="F9" s="1">
-        <v>2</v>
-      </c>
-      <c r="G9" s="1">
-        <v>2</v>
-      </c>
-      <c r="H9" s="1" t="s">
+      <c r="B13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="I9" s="4">
-        <v>2</v>
-      </c>
-      <c r="J9" s="1">
-        <v>4</v>
-      </c>
-      <c r="K9" s="1">
-        <v>4</v>
-      </c>
-      <c r="L9" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="B10" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="4">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1">
-        <v>2</v>
-      </c>
-      <c r="F10" s="1">
-        <v>2</v>
-      </c>
-      <c r="G10" s="1">
-        <v>2</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I10" s="4">
-        <v>2</v>
-      </c>
-      <c r="J10" s="1">
-        <v>4</v>
-      </c>
-      <c r="K10" s="1">
-        <v>4</v>
-      </c>
-      <c r="L10" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="D11" s="4">
-        <v>2</v>
-      </c>
-      <c r="E11" s="6">
-        <v>4</v>
-      </c>
-      <c r="F11" s="6">
-        <v>4</v>
-      </c>
-      <c r="G11" s="6">
-        <v>4</v>
-      </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="4">
-        <v>4</v>
-      </c>
-      <c r="J11" s="6">
-        <v>8</v>
-      </c>
-      <c r="K11" s="6">
-        <v>8</v>
-      </c>
-      <c r="L11" s="6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="D12" s="4"/>
-      <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="5" t="s">
+      <c r="E13" s="5">
+        <v>2</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0</v>
+      </c>
+      <c r="H13" s="5"/>
+      <c r="I13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J13" s="5">
+        <v>2</v>
+      </c>
+      <c r="K13" s="5">
+        <v>0</v>
+      </c>
+      <c r="L13" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12">
+      <c r="B14" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E13" s="7">
-        <v>2</v>
-      </c>
-      <c r="F13" s="7">
-        <v>0</v>
-      </c>
-      <c r="G13" s="7">
-        <v>0</v>
-      </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="J13" s="7">
-        <v>2</v>
-      </c>
-      <c r="K13" s="7">
-        <v>0</v>
-      </c>
-      <c r="L13" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="B14" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="2">
         <v>1</v>
       </c>
       <c r="E14" s="1">
@@ -1670,40 +2070,40 @@
         <v>4</v>
       </c>
       <c r="H14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1">
+        <v>2</v>
+      </c>
+      <c r="K14" s="1">
+        <v>2</v>
+      </c>
+      <c r="L14" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="4:9">
+      <c r="D15" s="2"/>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="4:9">
+      <c r="D16" s="2"/>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="I14" s="4">
-        <v>1</v>
-      </c>
-      <c r="J14" s="1">
-        <v>2</v>
-      </c>
-      <c r="K14" s="1">
-        <v>2</v>
-      </c>
-      <c r="L14" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="D15" s="4"/>
-      <c r="I15" s="4"/>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="D16" s="4"/>
-      <c r="I16" s="4"/>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="5" t="s">
+      <c r="B17" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="2">
         <v>9</v>
       </c>
       <c r="E17" s="1">
@@ -1716,29 +2116,29 @@
         <v>14</v>
       </c>
       <c r="H17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I17" s="2">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1">
+        <v>2</v>
+      </c>
+      <c r="K17" s="1">
+        <v>2</v>
+      </c>
+      <c r="L17" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12">
+      <c r="B18" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="I17" s="4">
-        <v>1</v>
-      </c>
-      <c r="J17" s="1">
-        <v>2</v>
-      </c>
-      <c r="K17" s="1">
-        <v>2</v>
-      </c>
-      <c r="L17" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D18" s="4">
+      <c r="D18" s="2">
         <v>1</v>
       </c>
       <c r="E18" s="1">
@@ -1753,7 +2153,7 @@
       <c r="H18" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="2">
         <v>2</v>
       </c>
       <c r="J18" s="1">
@@ -1766,14 +2166,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="2:12">
       <c r="B19" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D19" s="4">
+        <v>70</v>
+      </c>
+      <c r="D19" s="2">
         <v>1</v>
       </c>
       <c r="E19" s="1">
@@ -1788,7 +2188,7 @@
       <c r="H19" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19" s="2">
         <v>2</v>
       </c>
       <c r="J19" s="1">
@@ -1801,48 +2201,48 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
-      <c r="D20" s="4">
+    <row r="20" spans="4:12">
+      <c r="D20" s="2">
         <v>11</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="4">
         <v>22</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="4">
         <v>18</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="4">
         <v>18</v>
       </c>
-      <c r="H20" s="6"/>
-      <c r="I20" s="4">
+      <c r="H20" s="4"/>
+      <c r="I20" s="2">
         <v>5</v>
       </c>
-      <c r="J20" s="6">
+      <c r="J20" s="4">
         <v>10</v>
       </c>
-      <c r="K20" s="6">
+      <c r="K20" s="4">
         <v>6</v>
       </c>
-      <c r="L20" s="6">
+      <c r="L20" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
-      <c r="D21" s="4"/>
-      <c r="I21" s="4"/>
+    <row r="21" spans="4:9">
+      <c r="D21" s="2"/>
+      <c r="I21" s="2"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D22" s="4">
+      <c r="D22" s="2">
         <v>1</v>
       </c>
       <c r="E22" s="1">
@@ -1855,225 +2255,223 @@
         <v>0</v>
       </c>
       <c r="H22" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I22" s="2">
+        <v>1</v>
+      </c>
+      <c r="J22" s="1">
+        <v>2</v>
+      </c>
+      <c r="K22" s="1">
+        <v>2</v>
+      </c>
+      <c r="L22" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12">
+      <c r="B23" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="I22" s="4">
+      <c r="C23" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="2">
+        <v>2</v>
+      </c>
+      <c r="E23" s="1">
+        <v>4</v>
+      </c>
+      <c r="F23" s="1">
+        <v>4</v>
+      </c>
+      <c r="G23" s="1">
+        <v>2</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I23" s="2">
         <v>1</v>
       </c>
-      <c r="J22" s="1">
-        <v>2</v>
-      </c>
-      <c r="K22" s="1">
-        <v>2</v>
-      </c>
-      <c r="L22" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="B23" s="1" t="s">
+      <c r="J23" s="1">
+        <v>2</v>
+      </c>
+      <c r="K23" s="1">
+        <v>2</v>
+      </c>
+      <c r="L23" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12">
+      <c r="B24" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D23" s="4">
-        <v>2</v>
-      </c>
-      <c r="E23" s="1">
-        <v>4</v>
-      </c>
-      <c r="F23" s="1">
-        <v>4</v>
-      </c>
-      <c r="G23" s="1">
-        <v>2</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I23" s="4">
+      <c r="D24" s="2">
         <v>1</v>
       </c>
-      <c r="J23" s="1">
-        <v>2</v>
-      </c>
-      <c r="K23" s="1">
-        <v>2</v>
-      </c>
-      <c r="L23" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="B24" s="1" t="s">
+      <c r="E24" s="1">
+        <v>2</v>
+      </c>
+      <c r="F24" s="1">
+        <v>2</v>
+      </c>
+      <c r="G24" s="1">
+        <v>2</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="I24" s="2">
+        <v>1</v>
+      </c>
+      <c r="J24" s="1">
+        <v>2</v>
+      </c>
+      <c r="K24" s="6">
+        <v>1</v>
+      </c>
+      <c r="L24" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12">
+      <c r="B25" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D24" s="4">
+      <c r="C25" s="5"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+    </row>
+    <row r="26" spans="4:12">
+      <c r="D26" s="2">
+        <v>4</v>
+      </c>
+      <c r="E26" s="4">
+        <v>8</v>
+      </c>
+      <c r="F26" s="4">
+        <v>8</v>
+      </c>
+      <c r="G26" s="4">
+        <v>5</v>
+      </c>
+      <c r="H26" s="4"/>
+      <c r="I26" s="2">
+        <v>3</v>
+      </c>
+      <c r="J26" s="4">
+        <v>6</v>
+      </c>
+      <c r="K26" s="4">
+        <v>4</v>
+      </c>
+      <c r="L26" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="4:9">
+      <c r="D27" s="2"/>
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="2:9">
+      <c r="B29" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="I29" s="2"/>
+    </row>
+    <row r="30" spans="4:9">
+      <c r="D30" s="2"/>
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="4:9">
+      <c r="D31" s="2"/>
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D32" s="2">
         <v>1</v>
       </c>
-      <c r="E24" s="1">
-        <v>2</v>
-      </c>
-      <c r="F24" s="1">
-        <v>2</v>
-      </c>
-      <c r="G24" s="1">
-        <v>2</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="I24" s="4">
+      <c r="E32" s="1">
+        <v>2</v>
+      </c>
+      <c r="F32" s="1">
+        <v>2</v>
+      </c>
+      <c r="G32" s="1">
+        <v>2</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I32" s="2">
         <v>1</v>
       </c>
-      <c r="J24" s="1">
-        <v>2</v>
-      </c>
-      <c r="K24" s="8">
+      <c r="J32" s="1">
+        <v>2</v>
+      </c>
+      <c r="K32" s="1">
+        <v>2</v>
+      </c>
+      <c r="L32" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12">
+      <c r="B33" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33" s="2">
         <v>1</v>
       </c>
-      <c r="L24" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="B25" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="D26" s="4">
-        <v>4</v>
-      </c>
-      <c r="E26" s="6">
-        <v>8</v>
-      </c>
-      <c r="F26" s="6">
-        <v>8</v>
-      </c>
-      <c r="G26" s="6">
-        <v>5</v>
-      </c>
-      <c r="H26" s="6"/>
-      <c r="I26" s="4">
-        <v>3</v>
-      </c>
-      <c r="J26" s="6">
-        <v>6</v>
-      </c>
-      <c r="K26" s="6">
-        <v>4</v>
-      </c>
-      <c r="L26" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="D27" s="4"/>
-      <c r="I27" s="4"/>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D28" s="4"/>
-      <c r="I28" s="4"/>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="B29" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D29" s="4"/>
-      <c r="I29" s="4"/>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="D30" s="4"/>
-      <c r="I30" s="4"/>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="D31" s="4"/>
-      <c r="I31" s="4"/>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B32" s="1" t="s">
+      <c r="E33" s="1">
+        <v>2</v>
+      </c>
+      <c r="F33" s="1">
+        <v>2</v>
+      </c>
+      <c r="G33" s="1">
+        <v>2</v>
+      </c>
+      <c r="H33" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D32" s="4">
-        <v>1</v>
-      </c>
-      <c r="E32" s="1">
-        <v>2</v>
-      </c>
-      <c r="F32" s="1">
-        <v>2</v>
-      </c>
-      <c r="G32" s="1">
-        <v>2</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="I32" s="4">
-        <v>1</v>
-      </c>
-      <c r="J32" s="1">
-        <v>2</v>
-      </c>
-      <c r="K32" s="1">
-        <v>2</v>
-      </c>
-      <c r="L32" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="B33" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D33" s="4">
-        <v>1</v>
-      </c>
-      <c r="E33" s="1">
-        <v>2</v>
-      </c>
-      <c r="F33" s="1">
-        <v>2</v>
-      </c>
-      <c r="G33" s="1">
-        <v>2</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="I33" s="4">
+      <c r="I33" s="2">
         <v>3</v>
       </c>
       <c r="J33" s="1">
@@ -2086,21 +2484,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="2:9">
       <c r="B34" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D34" s="4"/>
-      <c r="I34" s="4"/>
-    </row>
-    <row r="35" spans="1:12">
+        <v>92</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="I34" s="2"/>
+    </row>
+    <row r="35" spans="2:12">
       <c r="B35" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D35" s="4">
+        <v>94</v>
+      </c>
+      <c r="D35" s="2">
         <v>3</v>
       </c>
       <c r="E35" s="1">
@@ -2113,9 +2511,9 @@
         <v>6</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="I35" s="4">
+        <v>95</v>
+      </c>
+      <c r="I35" s="2">
         <v>5</v>
       </c>
       <c r="J35" s="1">
@@ -2128,14 +2526,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="2:12">
       <c r="B36" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D36" s="4">
+        <v>94</v>
+      </c>
+      <c r="D36" s="2">
         <v>3</v>
       </c>
       <c r="E36" s="1">
@@ -2148,9 +2546,9 @@
         <v>6</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="I36" s="4">
+        <v>95</v>
+      </c>
+      <c r="I36" s="2">
         <v>5</v>
       </c>
       <c r="J36" s="1">
@@ -2163,77 +2561,77 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="2:12">
       <c r="B37" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D37" s="2">
+        <v>1</v>
+      </c>
+      <c r="E37" s="1">
+        <v>2</v>
+      </c>
+      <c r="F37" s="1">
+        <v>2</v>
+      </c>
+      <c r="G37" s="1">
+        <v>2</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I37" s="2">
+        <v>1</v>
+      </c>
+      <c r="J37" s="1">
+        <v>2</v>
+      </c>
+      <c r="K37" s="1">
+        <v>2</v>
+      </c>
+      <c r="L37" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="4:12">
+      <c r="D38" s="2">
+        <v>9</v>
+      </c>
+      <c r="E38" s="4">
+        <v>18</v>
+      </c>
+      <c r="F38" s="4">
+        <v>18</v>
+      </c>
+      <c r="G38" s="4">
+        <v>18</v>
+      </c>
+      <c r="H38" s="4"/>
+      <c r="I38" s="2">
+        <v>15</v>
+      </c>
+      <c r="J38" s="4">
+        <v>30</v>
+      </c>
+      <c r="K38" s="4">
+        <v>26</v>
+      </c>
+      <c r="L38" s="4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D37" s="4">
-        <v>1</v>
-      </c>
-      <c r="E37" s="1">
-        <v>2</v>
-      </c>
-      <c r="F37" s="1">
-        <v>2</v>
-      </c>
-      <c r="G37" s="1">
-        <v>2</v>
-      </c>
-      <c r="H37" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="I37" s="4">
-        <v>1</v>
-      </c>
-      <c r="J37" s="1">
-        <v>2</v>
-      </c>
-      <c r="K37" s="1">
-        <v>2</v>
-      </c>
-      <c r="L37" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12">
-      <c r="D38" s="4">
-        <v>9</v>
-      </c>
-      <c r="E38" s="6">
-        <v>18</v>
-      </c>
-      <c r="F38" s="6">
-        <v>18</v>
-      </c>
-      <c r="G38" s="6">
-        <v>18</v>
-      </c>
-      <c r="H38" s="6"/>
-      <c r="I38" s="4">
-        <v>15</v>
-      </c>
-      <c r="J38" s="6">
-        <v>30</v>
-      </c>
-      <c r="K38" s="6">
-        <v>26</v>
-      </c>
-      <c r="L38" s="6">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12">
-      <c r="A41" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="D41" s="1">
         <v>2</v>
@@ -2264,14 +2662,14 @@
       </c>
     </row>
     <row r="46" spans="1:12">
-      <c r="A46" s="5" t="s">
-        <v>119</v>
+      <c r="A46" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="D46" s="1">
         <v>4</v>
@@ -2286,7 +2684,7 @@
         <v>8</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="I46" s="1">
         <v>3</v>
@@ -2302,14 +2700,14 @@
       </c>
     </row>
     <row r="51" spans="1:12">
-      <c r="A51" s="5" t="s">
-        <v>123</v>
+      <c r="A51" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="D51" s="1">
         <v>1</v>
@@ -2324,7 +2722,7 @@
         <v>2</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="I51" s="1">
         <v>7</v>
@@ -2339,27 +2737,27 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="19" customHeight="1"/>
+    <row r="62" ht="19" customHeight="1"/>
     <row r="98" spans="1:5">
       <c r="A98" s="1" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="B98" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D98" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C98" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="E98" s="1" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
     </row>
     <row r="99" spans="1:5">
-      <c r="A99" s="5" t="s">
-        <v>56</v>
+      <c r="A99" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="B99" s="1">
         <v>12</v>
@@ -2374,14 +2772,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
-      <c r="A101" s="5" t="s">
-        <v>51</v>
+    <row r="101" spans="1:1">
+      <c r="A101" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="103" spans="1:5">
-      <c r="A103" s="5" t="s">
-        <v>62</v>
+      <c r="A103" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="B103" s="1">
         <v>8</v>
@@ -2396,9 +2794,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
-      <c r="A105" s="5" t="s">
-        <v>66</v>
+    <row r="105" spans="1:4">
+      <c r="A105" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="B105" s="1">
         <v>32</v>
@@ -2410,9 +2808,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
-      <c r="A107" s="5" t="s">
-        <v>75</v>
+    <row r="107" spans="1:4">
+      <c r="A107" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="B107" s="1">
         <v>14</v>
@@ -2424,14 +2822,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
-      <c r="A109" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5">
-      <c r="A111" s="5" t="s">
-        <v>88</v>
+    <row r="109" spans="1:1">
+      <c r="A109" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="B111" s="1">
         <v>48</v>
@@ -2445,24 +2843,24 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B124" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D124" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C124" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="E124" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
       <c r="A126" s="1" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B126" s="1">
         <v>12</v>
@@ -2474,9 +2872,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:4">
       <c r="A127" s="1" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B127" s="1">
         <v>32</v>
@@ -2488,9 +2886,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:4">
       <c r="A128" s="1" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="B128" s="1">
         <v>10</v>
@@ -2504,7 +2902,7 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B129" s="1">
         <v>4</v>
@@ -2518,7 +2916,7 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B132" s="1">
         <v>8</v>
@@ -2532,7 +2930,7 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B133" s="1">
         <v>32</v>
@@ -2546,7 +2944,7 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B134" s="1">
         <v>4</v>
@@ -2560,7 +2958,7 @@
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B135" s="1">
         <v>60</v>
@@ -2574,7 +2972,7 @@
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="1" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="B136" s="1">
         <v>10</v>
@@ -2588,7 +2986,7 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="1" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="B137" s="1">
         <v>4</v>
@@ -2600,13 +2998,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:1">
       <c r="A141" s="1" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>